--- a/table/source/Action.xlsx
+++ b/table/source/Action.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -73,14 +73,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>default_attack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기본 공격 액션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -110,6 +102,30 @@
   </si>
   <si>
     <t>float</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>knight_attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_knight_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>archer_attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>necromancer_attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_necromancer_attack</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>default_archer_attack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -435,15 +451,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.75" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="16.875" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
@@ -451,31 +468,31 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
@@ -492,13 +509,13 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
         <v>6</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H2" t="s">
         <v>7</v>
@@ -518,7 +535,7 @@
         <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -547,7 +564,7 @@
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E4">
         <v>0.5</v>
@@ -567,19 +584,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>13</v>
       </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5">
-        <v>0.02</v>
+        <v>0.63300000000000001</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -591,6 +608,64 @@
         <v>0</v>
       </c>
       <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6">
+        <v>0.63300000000000001</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>0.66700000000000004</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
         <v>0</v>
       </c>
     </row>
